--- a/fuentes/contenidos/grado06/guion07/CS_06_07_CO_SolicitudVideos.xlsx
+++ b/fuentes/contenidos/grado06/guion07/CS_06_07_CO_SolicitudVideos.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>Área</t>
   </si>
@@ -131,12 +131,6 @@
   </si>
   <si>
     <t>La formación de los planetas</t>
-  </si>
-  <si>
-    <t>http://profesores.aulaplaneta.com/DNNPlayerPackages/Package14476/Recurso030/Principal.html?transparent=on&amp;solucion=si</t>
-  </si>
-  <si>
-    <t>Responde las preguntas sobre el sistema solar</t>
   </si>
   <si>
     <t>La conquista del espacio</t>
@@ -574,7 +568,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -585,11 +579,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,7 +703,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -717,16 +711,16 @@
         <v>10</v>
       </c>
       <c r="C5" s="4">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F5" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>12</v>
@@ -735,7 +729,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -743,51 +737,35 @@
         <v>10</v>
       </c>
       <c r="C6" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="E6" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="4">
-        <v>12</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="14.45" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="4"/>
@@ -797,7 +775,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="4"/>
@@ -807,7 +785,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="4"/>
@@ -817,7 +795,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="4"/>
@@ -827,7 +805,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="4"/>
@@ -837,7 +815,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="4"/>
@@ -847,7 +825,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="4"/>
@@ -857,7 +835,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="4"/>
@@ -867,7 +845,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="4"/>
@@ -877,7 +855,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="4"/>
@@ -887,7 +865,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="4"/>
@@ -897,7 +875,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="4"/>
@@ -907,7 +885,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="4"/>
@@ -917,7 +895,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="4"/>
@@ -927,7 +905,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="4"/>
@@ -937,7 +915,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="4"/>
@@ -947,7 +925,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="4"/>
@@ -957,7 +935,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="4"/>
@@ -967,7 +945,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="4"/>
@@ -1017,34 +995,23 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A30">
       <formula1>"Ciencias Naturales,Ciencias Sociales,Lenguaje,Matemáticas"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F30">
       <formula1>"Recurso,Media principal"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G30">
       <formula1>"GEH,GEP,AP"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E5" r:id="rId2"/>
-    <hyperlink ref="E7" r:id="rId3"/>
+    <hyperlink ref="E6" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="119" scale="47" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="119" scale="47" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>